--- a/xls/stats-blocks_world-colin2.xlsx
+++ b/xls/stats-blocks_world-colin2.xlsx
@@ -14,18 +14,18 @@
     <sheet name="Memory_usage" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Makespan!$A$1:$F$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Memory_usage'!$A$1:$F$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Number_of_actions'!$A$1:$F$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planning_results'!$A$1:$F$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Processing_time'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Makespan!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Memory_usage'!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Number_of_actions'!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planning_results'!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Processing_time'!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="22">
   <si>
     <t>Tool</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Object</t>
+  </si>
+  <si>
+    <t>$0.25$</t>
+  </si>
+  <si>
+    <t>$0.50$</t>
+  </si>
+  <si>
+    <t>$0.75$</t>
+  </si>
+  <si>
+    <t>$1.00$</t>
   </si>
   <si>
     <t>Action</t>
@@ -465,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -475,7 +487,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -506,8 +518,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>53</v>
@@ -526,8 +538,8 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>48</v>
@@ -546,8 +558,8 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>55</v>
@@ -564,79 +576,79 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2">
         <v>16</v>
@@ -644,39 +656,39 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2">
         <v>16</v>
@@ -684,56 +696,56 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
         <v>16</v>
-      </c>
-      <c r="E12" s="2">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
         <v>20</v>
@@ -744,262 +756,262 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>16</v>
       </c>
       <c r="E15" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C17" s="2">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2">
-        <v>25</v>
-      </c>
       <c r="E17" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2">
         <v>16</v>
-      </c>
-      <c r="E22" s="2">
-        <v>22</v>
-      </c>
-      <c r="F22" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25" s="2">
         <v>22</v>
       </c>
       <c r="F25" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1007,30 +1019,190 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2">
+        <v>17</v>
+      </c>
+      <c r="F27" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43</v>
+      </c>
+      <c r="D29" s="2">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2">
+        <v>25</v>
+      </c>
+      <c r="E31" s="2">
+        <v>20</v>
+      </c>
+      <c r="F31" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2">
         <v>15</v>
       </c>
-      <c r="C27" s="2">
+      <c r="E32" s="2">
+        <v>22</v>
+      </c>
+      <c r="F32" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>49</v>
+      </c>
+      <c r="D33" s="2">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2">
+        <v>23</v>
+      </c>
+      <c r="F33" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2">
         <v>28</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D35" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E35" s="2">
         <v>42</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F35" s="2">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1040,7 +1212,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -1071,8 +1243,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>59.1</v>
@@ -1091,8 +1263,8 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>49.5</v>
@@ -1111,8 +1283,8 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>47.7</v>
@@ -1129,13 +1301,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>61.3</v>
+        <v>47.7</v>
       </c>
       <c r="D5" s="2">
         <v>-1</v>
@@ -1149,13 +1321,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>54.3</v>
+        <v>61.3</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
@@ -1169,13 +1341,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>49.1</v>
+        <v>54.3</v>
       </c>
       <c r="D7" s="2">
         <v>-1</v>
@@ -1189,13 +1361,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>60.9</v>
+        <v>49.1</v>
       </c>
       <c r="D8" s="2">
         <v>-1</v>
@@ -1209,13 +1381,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>50.9</v>
+        <v>49.1</v>
       </c>
       <c r="D9" s="2">
         <v>-1</v>
@@ -1229,13 +1401,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>48.4</v>
+        <v>60.9</v>
       </c>
       <c r="D10" s="2">
         <v>-1</v>
@@ -1249,13 +1421,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>57.2</v>
+        <v>50.9</v>
       </c>
       <c r="D11" s="2">
         <v>-1</v>
@@ -1269,13 +1441,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>51.3</v>
+        <v>48.4</v>
       </c>
       <c r="D12" s="2">
         <v>-1</v>
@@ -1289,13 +1461,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>49.1</v>
+        <v>48.4</v>
       </c>
       <c r="D13" s="2">
         <v>-1</v>
@@ -1309,13 +1481,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>57.8</v>
+        <v>57.2</v>
       </c>
       <c r="D14" s="2">
         <v>-1</v>
@@ -1329,13 +1501,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>55.9</v>
+        <v>51.3</v>
       </c>
       <c r="D15" s="2">
         <v>-1</v>
@@ -1349,13 +1521,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>50.7</v>
+        <v>49.1</v>
       </c>
       <c r="D16" s="2">
         <v>-1</v>
@@ -1369,13 +1541,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>59.3</v>
+        <v>49.1</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
@@ -1389,13 +1561,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>54.4</v>
+        <v>57.8</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
@@ -1409,13 +1581,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>51.2</v>
+        <v>55.9</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
@@ -1429,13 +1601,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>63.5</v>
+        <v>50.7</v>
       </c>
       <c r="D20" s="2">
         <v>-1</v>
@@ -1449,13 +1621,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>62.2</v>
+        <v>50.7</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
@@ -1469,13 +1641,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>58.3</v>
+        <v>59.3</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
@@ -1489,13 +1661,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>58.4</v>
+        <v>54.4</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
@@ -1509,13 +1681,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>56.5</v>
+        <v>51.2</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
@@ -1529,13 +1701,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>53.8</v>
+        <v>51.2</v>
       </c>
       <c r="D25" s="2">
         <v>-1</v>
@@ -1549,13 +1721,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>57.3</v>
+        <v>63.5</v>
       </c>
       <c r="D26" s="2">
         <v>-1</v>
@@ -1572,30 +1744,190 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
+        <v>62.2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>58.3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>58.3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>58.4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>56.5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>53.8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>53.7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>57.3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
         <v>46.8</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="2">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1605,7 +1937,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -1636,8 +1968,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>73.09999999999999</v>
@@ -1656,8 +1988,8 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>64.8</v>
@@ -1676,8 +2008,8 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>64.90000000000001</v>
@@ -1694,13 +2026,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>75.40000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D5" s="2">
         <v>-1</v>
@@ -1714,13 +2046,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
@@ -1734,13 +2066,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>67.2</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2">
         <v>-1</v>
@@ -1754,13 +2086,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>73.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="D8" s="2">
         <v>-1</v>
@@ -1774,13 +2106,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>66.7</v>
+        <v>67.2</v>
       </c>
       <c r="D9" s="2">
         <v>-1</v>
@@ -1794,13 +2126,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>65.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D10" s="2">
         <v>-1</v>
@@ -1814,13 +2146,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>72.2</v>
+        <v>66.7</v>
       </c>
       <c r="D11" s="2">
         <v>-1</v>
@@ -1834,13 +2166,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>66.09999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="D12" s="2">
         <v>-1</v>
@@ -1854,13 +2186,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>66.7</v>
+        <v>65.7</v>
       </c>
       <c r="D13" s="2">
         <v>-1</v>
@@ -1874,13 +2206,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>74</v>
+        <v>72.2</v>
       </c>
       <c r="D14" s="2">
         <v>-1</v>
@@ -1894,13 +2226,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>73</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D15" s="2">
         <v>-1</v>
@@ -1914,13 +2246,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>68.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="D16" s="2">
         <v>-1</v>
@@ -1934,13 +2266,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>74.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
@@ -1954,13 +2286,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>69.8</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
@@ -1974,13 +2306,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>68.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
@@ -1994,13 +2326,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>77.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D20" s="2">
         <v>-1</v>
@@ -2014,13 +2346,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>77</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
@@ -2034,13 +2366,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>74.09999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
@@ -2054,13 +2386,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>73.90000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
@@ -2074,13 +2406,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>72.40000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
@@ -2094,13 +2426,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>70.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D25" s="2">
         <v>-1</v>
@@ -2114,13 +2446,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>72.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="D26" s="2">
         <v>-1</v>
@@ -2137,30 +2469,190 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
         <v>71.2</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="2">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2170,7 +2662,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -2201,8 +2693,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>7.5</v>
@@ -2221,8 +2713,8 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>5.4</v>
@@ -2241,8 +2733,8 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>5.5</v>
@@ -2259,93 +2751,93 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
       <c r="D5" s="2">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="E5" s="2">
         <v>60</v>
       </c>
       <c r="F5" s="3">
-        <v>36.9</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>11.2</v>
+        <v>7.9</v>
       </c>
       <c r="D6" s="2">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
       </c>
       <c r="F6" s="3">
-        <v>40.9</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>7.8</v>
+        <v>11.2</v>
       </c>
       <c r="D7" s="2">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="E7" s="2">
         <v>60</v>
       </c>
       <c r="F7" s="3">
-        <v>38.3</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="D8" s="2">
-        <v>6.3</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>60</v>
       </c>
       <c r="F8" s="3">
-        <v>40.3</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -2354,347 +2846,347 @@
         <v>60</v>
       </c>
       <c r="F9" s="3">
-        <v>42.4</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>5.9</v>
+        <v>8.4</v>
       </c>
       <c r="D10" s="2">
-        <v>11.1</v>
+        <v>6.3</v>
       </c>
       <c r="E10" s="2">
         <v>60</v>
       </c>
       <c r="F10" s="3">
-        <v>42.6</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>6.9</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>60</v>
       </c>
       <c r="F11" s="3">
-        <v>42</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="D12" s="2">
-        <v>4.8</v>
+        <v>11.1</v>
       </c>
       <c r="E12" s="2">
         <v>60</v>
       </c>
       <c r="F12" s="3">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="D13" s="2">
-        <v>5.9</v>
+        <v>11.1</v>
       </c>
       <c r="E13" s="2">
         <v>60</v>
       </c>
       <c r="F13" s="3">
-        <v>43.1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="D14" s="2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2">
         <v>60</v>
       </c>
       <c r="F14" s="3">
-        <v>41.7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>10.8</v>
+        <v>5.7</v>
       </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="E15" s="2">
         <v>60</v>
       </c>
       <c r="F15" s="3">
-        <v>44.2</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="D16" s="2">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="E16" s="2">
         <v>60</v>
       </c>
       <c r="F16" s="3">
-        <v>44.7</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>8.4</v>
+        <v>6.1</v>
       </c>
       <c r="D17" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="E17" s="2">
         <v>60</v>
       </c>
       <c r="F17" s="3">
-        <v>39.4</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="D18" s="2">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="E18" s="2">
         <v>60</v>
       </c>
       <c r="F18" s="3">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>8</v>
+        <v>10.8</v>
       </c>
       <c r="D19" s="2">
-        <v>9.300000000000001</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2">
         <v>60</v>
       </c>
       <c r="F19" s="3">
-        <v>41.8</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="D20" s="2">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="E20" s="2">
         <v>60</v>
       </c>
       <c r="F20" s="3">
-        <v>39.9</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="D21" s="2">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="E21" s="2">
         <v>60</v>
       </c>
       <c r="F21" s="3">
-        <v>40.4</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="D22" s="2">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="E22" s="2">
         <v>60</v>
       </c>
       <c r="F22" s="3">
-        <v>42.5</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>10.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2">
         <v>60</v>
       </c>
       <c r="F23" s="3">
-        <v>40.9</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2">
-        <v>7.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E24" s="2">
         <v>60</v>
       </c>
       <c r="F24" s="3">
-        <v>40.4</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="D25" s="2">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E25" s="2">
         <v>60</v>
       </c>
       <c r="F25" s="3">
-        <v>44.1</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="D26" s="2">
-        <v>6.9</v>
+        <v>3.4</v>
       </c>
       <c r="E26" s="2">
         <v>60</v>
       </c>
       <c r="F26" s="3">
-        <v>44.3</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2702,30 +3194,190 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
+        <v>4.5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4.6</v>
       </c>
       <c r="E27" s="2">
         <v>60</v>
       </c>
       <c r="F27" s="3">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>60</v>
+      </c>
+      <c r="F28" s="3">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>60</v>
+      </c>
+      <c r="F29" s="3">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10.2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>60</v>
+      </c>
+      <c r="F30" s="3">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="E31" s="2">
+        <v>60</v>
+      </c>
+      <c r="F31" s="3">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>60</v>
+      </c>
+      <c r="F32" s="3">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="E33" s="2">
+        <v>60</v>
+      </c>
+      <c r="F33" s="3">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="E34" s="2">
+        <v>60</v>
+      </c>
+      <c r="F34" s="3">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2">
+        <v>60</v>
+      </c>
+      <c r="F35" s="3">
         <v>43.4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2735,7 +3387,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -2766,8 +3418,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>12.9</v>
@@ -2786,8 +3438,8 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>11</v>
@@ -2806,8 +3458,8 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>9.9</v>
@@ -2824,136 +3476,136 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>14.6</v>
+        <v>9.9</v>
       </c>
       <c r="D5" s="2">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="E5" s="3">
-        <v>75</v>
+        <v>82.3</v>
       </c>
       <c r="F5" s="3">
-        <v>119.9</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>17.7</v>
+        <v>14.6</v>
       </c>
       <c r="D6" s="2">
-        <v>8.9</v>
+        <v>11.7</v>
       </c>
       <c r="E6" s="3">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3">
-        <v>120</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>10.5</v>
+        <v>17.7</v>
       </c>
       <c r="D7" s="2">
-        <v>13</v>
+        <v>8.9</v>
       </c>
       <c r="E7" s="3">
-        <v>73.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>119.6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>14.4</v>
+        <v>10.5</v>
       </c>
       <c r="D8" s="2">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>82.90000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="F8" s="3">
-        <v>120</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="D9" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3">
-        <v>86.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>120</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>10.8</v>
+        <v>14.4</v>
       </c>
       <c r="D10" s="2">
-        <v>14.4</v>
+        <v>12.2</v>
       </c>
       <c r="E10" s="3">
-        <v>83.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="F10" s="3">
-        <v>119.6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
       <c r="D11" s="2">
-        <v>5.9</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3">
         <v>86.3</v>
@@ -2964,59 +3616,59 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>11.5</v>
+        <v>10.8</v>
       </c>
       <c r="D12" s="2">
-        <v>6.6</v>
+        <v>14.4</v>
       </c>
       <c r="E12" s="3">
-        <v>86.8</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="F12" s="3">
-        <v>120</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>11</v>
+        <v>13.2</v>
       </c>
       <c r="D13" s="2">
-        <v>7.1</v>
+        <v>14.4</v>
       </c>
       <c r="E13" s="3">
-        <v>76.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="F13" s="3">
-        <v>119.6</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="D14" s="2">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="E14" s="3">
-        <v>74.90000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="F14" s="3">
         <v>120</v>
@@ -3024,19 +3676,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="D15" s="2">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="E15" s="3">
-        <v>70.3</v>
+        <v>86.8</v>
       </c>
       <c r="F15" s="3">
         <v>120</v>
@@ -3044,59 +3696,59 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="E16" s="3">
-        <v>71.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F16" s="3">
-        <v>119.7</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C17" s="3">
-        <v>15</v>
-      </c>
       <c r="D17" s="2">
-        <v>12</v>
+        <v>7.1</v>
       </c>
       <c r="E17" s="3">
-        <v>85.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F17" s="3">
-        <v>119.9</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>15.2</v>
+        <v>13.7</v>
       </c>
       <c r="D18" s="2">
-        <v>13.1</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>74.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F18" s="3">
         <v>120</v>
@@ -3104,99 +3756,99 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>12.8</v>
+        <v>18.5</v>
       </c>
       <c r="D19" s="2">
-        <v>10.7</v>
+        <v>3.6</v>
       </c>
       <c r="E19" s="3">
-        <v>76.8</v>
+        <v>70.3</v>
       </c>
       <c r="F19" s="3">
-        <v>119.6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>4.8</v>
+        <v>11.4</v>
       </c>
       <c r="D20" s="2">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="E20" s="3">
-        <v>74.2</v>
+        <v>71.5</v>
       </c>
       <c r="F20" s="3">
-        <v>119.9</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>7.9</v>
+        <v>11.4</v>
       </c>
       <c r="D21" s="2">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="E21" s="3">
-        <v>79.8</v>
+        <v>72.8</v>
       </c>
       <c r="F21" s="3">
-        <v>120</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2">
         <v>12</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C22" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>9</v>
-      </c>
       <c r="E22" s="3">
-        <v>74.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="F22" s="3">
-        <v>119.6</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>17.9</v>
+        <v>15.2</v>
       </c>
       <c r="D23" s="2">
-        <v>14.4</v>
+        <v>13.1</v>
       </c>
       <c r="E23" s="3">
-        <v>65</v>
+        <v>74.7</v>
       </c>
       <c r="F23" s="3">
         <v>120</v>
@@ -3204,59 +3856,59 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>18</v>
+        <v>12.8</v>
       </c>
       <c r="D24" s="2">
-        <v>14</v>
+        <v>10.7</v>
       </c>
       <c r="E24" s="3">
-        <v>68.3</v>
+        <v>76.8</v>
       </c>
       <c r="F24" s="3">
-        <v>120</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>16</v>
+        <v>12.8</v>
       </c>
       <c r="D25" s="2">
-        <v>12.4</v>
+        <v>10.7</v>
       </c>
       <c r="E25" s="3">
-        <v>60.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F25" s="3">
-        <v>119.2</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>11.2</v>
+        <v>4.8</v>
       </c>
       <c r="D26" s="2">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="E26" s="3">
-        <v>88.7</v>
+        <v>74.2</v>
       </c>
       <c r="F26" s="3">
         <v>119.9</v>
@@ -3267,23 +3919,183 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
-        <v>26.2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
+        <v>7.9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5.7</v>
       </c>
       <c r="E27" s="3">
-        <v>65.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="F27" s="3">
         <v>120</v>
       </c>
     </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>17.9</v>
+      </c>
+      <c r="D30" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>65</v>
+      </c>
+      <c r="F30" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" s="3">
+        <v>68.3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>60.3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>60.7</v>
+      </c>
+      <c r="F33" s="3">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>88.7</v>
+      </c>
+      <c r="F34" s="3">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="F35" s="3">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xls/stats-blocks_world-colin2.xlsx
+++ b/xls/stats-blocks_world-colin2.xlsx
@@ -3120,7 +3120,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="E23" s="2">
         <v>60</v>
